--- a/m1/u1/ejercicios/20191028/Funciones lógicas/FUNCION.SI.TAXI.xlsx
+++ b/m1/u1/ejercicios/20191028/Funciones lógicas/FUNCION.SI.TAXI.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Google Drive\Cursos\Excel\2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191028\Funciones lógicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TARIFAS TAXI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -205,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -214,6 +214,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -537,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,8 +550,8 @@
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -565,7 +567,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -573,7 +575,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -584,59 +586,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <f>IF(B8="N",A8*$B$4,A8*$B$3)+$B$2</f>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:C13" si="0">IF(B9="N",A9*$B$4,A9*$B$3)+$B$2</f>
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>44.550000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
